--- a/output/tables/mesh/level0/stats.xlsx
+++ b/output/tables/mesh/level0/stats.xlsx
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>2.436204897275662E-06</v>
+        <v>-0.0002298537714565605</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,16 +465,16 @@
         <v>20</v>
       </c>
       <c r="H2">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.123</v>
       </c>
       <c r="J2">
-        <v>-0.0005377623871166844</v>
+        <v>-0.0005814674660598743</v>
       </c>
       <c r="K2">
-        <v>0.0003826727101161982</v>
+        <v>6.103159777466052E-05</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.123</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.0002010876522680852</v>
+        <v>-1.597395289910095E-05</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -526,16 +526,16 @@
         <v>20</v>
       </c>
       <c r="H3">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="I3">
-        <v>0.277</v>
+        <v>0.956</v>
       </c>
       <c r="J3">
-        <v>-0.0002273419098727226</v>
+        <v>-0.0002852612092065674</v>
       </c>
       <c r="K3">
-        <v>0.0006567050281513125</v>
+        <v>0.0003072435998003379</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="N3">
-        <v>0.277</v>
+        <v>0.956</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -559,11 +559,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Phenomena and Processes</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="B4">
-        <v>5.081481203051894E-06</v>
+        <v>5.105895807113153E-06</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -587,16 +587,16 @@
         <v>20</v>
       </c>
       <c r="H4">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.927</v>
       </c>
       <c r="J4">
-        <v>-0.0003055593590399147</v>
+        <v>-0.0002741807242574469</v>
       </c>
       <c r="K4">
-        <v>0.0003322143442185191</v>
+        <v>0.0002748829757913721</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.927</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -620,11 +620,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Phenomena and Processes</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.0003112260915200588</v>
+        <v>-0.0001019681687950769</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -648,16 +648,16 @@
         <v>20</v>
       </c>
       <c r="H5">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="I5">
-        <v>0.189</v>
+        <v>0.368</v>
       </c>
       <c r="J5">
-        <v>-0.0001371711617599295</v>
+        <v>-0.0003114216229655468</v>
       </c>
       <c r="K5">
-        <v>0.0006803419729501672</v>
+        <v>0.0001085594328893722</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="N5">
-        <v>0.189</v>
+        <v>0.368</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.000676091751030486</v>
+        <v>0.0003899966102976325</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -709,16 +709,16 @@
         <v>20</v>
       </c>
       <c r="H6">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I6">
         <v>0.001</v>
       </c>
       <c r="J6">
-        <v>0.0003132862050408305</v>
+        <v>0.0001709817012870642</v>
       </c>
       <c r="K6">
-        <v>0.001030013788627695</v>
+        <v>0.0005732654223848264</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -742,11 +742,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Named Groups</t>
+          <t>Diseases</t>
         </is>
       </c>
       <c r="B7">
-        <v>-0.0002544768407429993</v>
+        <v>0.0005882878668289916</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -770,16 +770,16 @@
         <v>20</v>
       </c>
       <c r="H7">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="I7">
-        <v>0.003</v>
+        <v>0.000586</v>
       </c>
       <c r="J7">
-        <v>-0.0004662320019094877</v>
+        <v>0.000270848720996036</v>
       </c>
       <c r="K7">
-        <v>-9.142351291253182E-05</v>
+        <v>0.0008953729608883427</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -792,22 +792,22 @@
         </is>
       </c>
       <c r="N7">
-        <v>0.003</v>
+        <v>0.000586</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Psychiatry and Psychology</t>
+          <t>Named Groups</t>
         </is>
       </c>
       <c r="B8">
-        <v>-0.0008452083620884834</v>
+        <v>-0.0002247525870117533</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -831,16 +831,16 @@
         <v>20</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I8">
-        <v>1.91E-06</v>
+        <v>0.001</v>
       </c>
       <c r="J8">
-        <v>-0.0009954148686564471</v>
+        <v>-0.0004437390554815736</v>
       </c>
       <c r="K8">
-        <v>-0.0007737237095926692</v>
+        <v>-8.391739927251065E-05</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -853,22 +853,22 @@
         </is>
       </c>
       <c r="N8">
-        <v>1.91E-06</v>
+        <v>0.001</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Diseases</t>
+          <t>Psychiatry and Psychology</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.0008591018854732368</v>
+        <v>-0.0007000824938209328</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -892,16 +892,16 @@
         <v>20</v>
       </c>
       <c r="H9">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.000261</v>
+        <v>1.91E-06</v>
       </c>
       <c r="J9">
-        <v>0.0004394502960600234</v>
+        <v>-0.0008069424715344469</v>
       </c>
       <c r="K9">
-        <v>0.001290000677758783</v>
+        <v>-0.0006168615322899898</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -914,11 +914,11 @@
         </is>
       </c>
       <c r="N9">
-        <v>0.000261</v>
+        <v>1.91E-06</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>****</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>2.463131269991376E-05</v>
+        <v>2.626203841847051E-05</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -953,16 +953,16 @@
         <v>20</v>
       </c>
       <c r="H10">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I10">
-        <v>0.756</v>
+        <v>0.701</v>
       </c>
       <c r="J10">
-        <v>-0.000194726168400428</v>
+        <v>-0.0001222973560014791</v>
       </c>
       <c r="K10">
-        <v>0.0002121769852543747</v>
+        <v>0.0001197297066365813</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="N10">
-        <v>0.756</v>
+        <v>0.701</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -986,11 +986,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="B11">
-        <v>-0.0002607261874359966</v>
+        <v>-0.0001343819141322359</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1014,16 +1014,16 @@
         <v>20</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I11">
-        <v>0.000708</v>
+        <v>0.019</v>
       </c>
       <c r="J11">
-        <v>-0.0004196351475831534</v>
+        <v>-0.0002511910932400017</v>
       </c>
       <c r="K11">
-        <v>-0.0001007458358738738</v>
+        <v>-2.283954970936156E-05</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1036,22 +1036,22 @@
         </is>
       </c>
       <c r="N11">
-        <v>0.000708</v>
+        <v>0.019</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anatomy</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B12">
-        <v>-0.000232411957897929</v>
+        <v>-0.0001810804848435456</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1075,16 +1075,16 @@
         <v>20</v>
       </c>
       <c r="H12">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I12">
-        <v>0.011</v>
+        <v>0.001</v>
       </c>
       <c r="J12">
-        <v>-0.0003906623776202237</v>
+        <v>-0.0003041097394880934</v>
       </c>
       <c r="K12">
-        <v>-4.314254794984102E-05</v>
+        <v>-7.127529881377145E-05</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1097,11 +1097,11 @@
         </is>
       </c>
       <c r="N12">
-        <v>0.011</v>
+        <v>0.001</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.0001959702786739022</v>
+        <v>7.336576115123204E-05</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1136,16 +1136,16 @@
         <v>20</v>
       </c>
       <c r="H13">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="I13">
-        <v>0.053</v>
+        <v>0.33</v>
       </c>
       <c r="J13">
-        <v>-4.46247904337078E-06</v>
+        <v>-7.353445449500976E-05</v>
       </c>
       <c r="K13">
-        <v>0.0003654985549280161</v>
+        <v>0.0002325939672839514</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="N13">
-        <v>0.053</v>
+        <v>0.33</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>-9.121276015434802E-05</v>
+        <v>-0.00016024933645685</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1197,16 +1197,16 @@
         <v>20</v>
       </c>
       <c r="H14">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I14">
-        <v>0.452</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J14">
-        <v>-0.0003726125047233644</v>
+        <v>-0.0003505525895191316</v>
       </c>
       <c r="K14">
-        <v>0.0001629521636747926</v>
+        <v>1.255170837645273E-05</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="N14">
-        <v>0.452</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>-0.0003334474814730082</v>
+        <v>-0.0003529138223230095</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1258,16 +1258,16 @@
         <v>20</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.67E-05</v>
+        <v>1.91E-06</v>
       </c>
       <c r="J15">
-        <v>-0.000500750394080119</v>
+        <v>-0.000459250569497284</v>
       </c>
       <c r="K15">
-        <v>-0.0001979687663041806</v>
+        <v>-0.0002681809551821411</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="N15">
-        <v>2.67E-05</v>
+        <v>1.91E-06</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>-3.950727525218323E-05</v>
+        <v>-0.0001483417452817251</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1319,16 +1319,16 @@
         <v>20</v>
       </c>
       <c r="H16">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="I16">
-        <v>0.368</v>
+        <v>0.002</v>
       </c>
       <c r="J16">
-        <v>-0.0001560757974388885</v>
+        <v>-0.0002358806236831698</v>
       </c>
       <c r="K16">
-        <v>8.892863776052186E-05</v>
+        <v>-6.989637068673018E-05</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1341,11 +1341,11 @@
         </is>
       </c>
       <c r="N16">
-        <v>0.368</v>
+        <v>0.002</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.0001190142488327129</v>
+        <v>3.734267418864029E-05</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1380,16 +1380,16 @@
         <v>20</v>
       </c>
       <c r="H17">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="I17">
-        <v>0.015</v>
+        <v>0.388</v>
       </c>
       <c r="J17">
-        <v>2.342778489826652E-05</v>
+        <v>-4.29840421768376E-05</v>
       </c>
       <c r="K17">
-        <v>0.0002968820018170454</v>
+        <v>0.0001488884500400137</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1402,11 +1402,11 @@
         </is>
       </c>
       <c r="N17">
-        <v>0.015</v>
+        <v>0.388</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>5.049553257488622E-06</v>
+        <v>-1.038449967070094E-05</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1441,16 +1441,16 @@
         <v>20</v>
       </c>
       <c r="H18">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I18">
-        <v>0.898</v>
+        <v>0.784</v>
       </c>
       <c r="J18">
-        <v>-8.294912114405041E-05</v>
+        <v>-8.825241996821222E-05</v>
       </c>
       <c r="K18">
-        <v>0.0001054386067285891</v>
+        <v>5.931799773895273E-05</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="N18">
-        <v>0.898</v>
+        <v>0.784</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
